--- a/data/trans_dic/P34D_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P34D_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>40,2; 56,84</t>
+          <t>40,53; 56,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,29; 21,97</t>
+          <t>11,0; 22,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27,7; 38,72</t>
+          <t>28,19; 38,22</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,82; 38,16</t>
+          <t>25,9; 37,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,96; 16,11</t>
+          <t>9,07; 16,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,84; 24,68</t>
+          <t>18,04; 24,88</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,54; 30,44</t>
+          <t>22,68; 30,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,0; 12,51</t>
+          <t>8,11; 12,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,92; 20,36</t>
+          <t>15,49; 20,42</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,63; 18,43</t>
+          <t>11,56; 18,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,06; 10,39</t>
+          <t>5,13; 9,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,04; 12,7</t>
+          <t>9,05; 12,97</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,66; 9,89</t>
+          <t>5,54; 9,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,21; 4,38</t>
+          <t>2,18; 4,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,21; 6,7</t>
+          <t>4,26; 6,62</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,4; 4,8</t>
+          <t>2,34; 4,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,25; 0,9</t>
+          <t>0,25; 0,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,27</t>
+          <t>1,2; 2,27</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>17,49; 20,93</t>
+          <t>17,3; 20,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,64; 7,62</t>
+          <t>5,67; 7,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,47; 13,4</t>
+          <t>11,55; 13,45</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P34D_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P34D_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>48,69%</t>
+          <t>48,04%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>16,26%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>32,9%</t>
+          <t>34,08%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>40,53; 56,52</t>
+          <t>38,74; 56,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,0; 22,37</t>
+          <t>11,26; 22,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>28,19; 38,22</t>
+          <t>29,0; 39,97</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>31,37%</t>
+          <t>31,53%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>21,17%</t>
+          <t>20,31%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,9; 37,4</t>
+          <t>25,67; 37,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,07; 16,4</t>
+          <t>6,45; 14,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,04; 24,88</t>
+          <t>15,61; 24,35</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>26,36%</t>
+          <t>26,12%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>18,08%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,68; 30,89</t>
+          <t>22,52; 30,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,11; 12,38</t>
+          <t>8,11; 12,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,49; 20,42</t>
+          <t>15,49; 20,52</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,29%</t>
+          <t>11,88%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>9,37%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,56; 18,3</t>
+          <t>5,07; 17,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,13; 9,9</t>
+          <t>4,86; 8,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,05; 12,97</t>
+          <t>5,75; 11,79</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>5,36%</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,54; 9,76</t>
+          <t>5,52; 9,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,18; 4,32</t>
+          <t>2,21; 4,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,26; 6,62</t>
+          <t>4,32; 6,59</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>2,02%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,34; 4,79</t>
+          <t>2,81; 6,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,25; 0,92</t>
+          <t>0,14; 1,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,2; 2,27</t>
+          <t>0,98; 2,96</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>1,04%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>17,3; 20,9</t>
+          <t>1,24; 4,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,67; 7,58</t>
+          <t>0,04; 0,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,55; 13,45</t>
+          <t>0,55; 1,75</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>18,36%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6,25%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>12,14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>14,09; 20,75</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4,96; 7,22</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>10,65; 13,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
